--- a/input/emissions-inventories/China/CEDS_MEIC_Emissions_2rdLevel_20160226.xlsx
+++ b/input/emissions-inventories/China/CEDS_MEIC_Emissions_2rdLevel_20160226.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meng/Work/Project/CEDS-PNNL/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="520" windowWidth="19200" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6320" yWindow="520" windowWidth="29100" windowHeight="18580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SourceMapping" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="2010" sheetId="3" r:id="rId3"/>
     <sheet name="2012" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="162">
   <si>
     <t>1A1a_Electricity-public</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +90,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,10 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inland waterway</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -555,10 +542,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,6 +624,9 @@
   <si>
     <t>combustion in cement, lime, brick and glass production</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation (shipping)</t>
   </si>
 </sst>
 </file>
@@ -651,7 +637,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -665,7 +651,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -981,7 +967,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1036,7 +1022,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,7 +1057,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1248,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1259,10 +1245,10 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="49.5" style="2" customWidth="1"/>
@@ -1270,468 +1256,468 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="22"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="20" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B25" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="20" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="B28" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="20" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="B29" s="22"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B30" s="22"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="22"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="22"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="22"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="20" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="22"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="20" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="24" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="20" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="20" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="20" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="20" t="s">
+    <row r="45" spans="1:2" ht="45">
+      <c r="A45" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="19" t="s">
+      <c r="B45" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.15">
-      <c r="A45" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="19" t="s">
+      <c r="B48" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="20" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="20" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="22"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="20" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="16" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="21" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="22"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="24" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="22"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="22"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="21" t="s">
+      <c r="B60" s="22"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="22"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="22"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="B61" s="22"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="27" t="s">
-        <v>52</v>
       </c>
       <c r="B62" s="28"/>
     </row>
@@ -1739,6 +1725,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1746,46 +1737,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="12" customWidth="1"/>
     <col min="2" max="8" width="19.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="34">
         <v>11023983.614785612</v>
@@ -1809,7 +1800,7 @@
         <v>52.124854415422305</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -1861,7 +1852,7 @@
         <v>17.79707568102458</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -1887,9 +1878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="34">
         <v>348802.96761417389</v>
@@ -1913,7 +1904,7 @@
         <v>242148.31293439865</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1965,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -2017,9 +2008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="34">
         <v>2314380.7608108521</v>
@@ -2043,9 +2034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="34">
         <v>14864.178205490112</v>
@@ -2069,7 +2060,7 @@
         <v>12485.91032409668</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -2173,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2216,7 @@
         <v>67881.693745168857</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -2277,9 +2268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="34">
         <v>144038.10401903826</v>
@@ -2303,9 +2294,9 @@
         <v>72818.305900519976</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="34">
         <v>7742.7379493713379</v>
@@ -2329,7 +2320,7 @@
         <v>2508.6471470594406</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
@@ -2355,9 +2346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B24" s="34">
         <v>4699.4722639843112</v>
@@ -2381,9 +2372,9 @@
         <v>1015.086017306134</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="34">
         <v>21090.222138643265</v>
@@ -2407,9 +2398,9 @@
         <v>23292.268866300583</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="34">
         <v>0</v>
@@ -2433,9 +2424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="34">
         <v>3128301.4755350351</v>
@@ -2459,9 +2450,9 @@
         <v>2513788.2144603585</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="34">
         <v>10725.219799041748</v>
@@ -2485,36 +2476,36 @@
         <v>6006.1227464675903</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0</v>
+      </c>
+      <c r="H29" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="34">
-        <v>0</v>
-      </c>
-      <c r="C29" s="34">
-        <v>0</v>
-      </c>
-      <c r="D29" s="34">
-        <v>0</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34">
-        <v>0</v>
-      </c>
-      <c r="H29" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="B30" s="34">
         <v>0</v>
       </c>
@@ -2537,9 +2528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="34">
         <v>0</v>
@@ -2563,9 +2554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="34">
         <v>0</v>
@@ -2589,9 +2580,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="34">
         <v>0</v>
@@ -2615,9 +2606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="34">
         <v>0</v>
@@ -2641,61 +2632,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="34">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+      <c r="B36" s="34">
+        <v>0</v>
+      </c>
+      <c r="C36" s="34">
+        <v>0</v>
+      </c>
+      <c r="D36" s="34">
+        <v>0</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0</v>
+      </c>
+      <c r="G36" s="34">
+        <v>0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B36" s="34">
-        <v>0</v>
-      </c>
-      <c r="C36" s="34">
-        <v>0</v>
-      </c>
-      <c r="D36" s="34">
-        <v>0</v>
-      </c>
-      <c r="E36" s="34">
-        <v>0</v>
-      </c>
-      <c r="F36" s="34">
-        <v>0</v>
-      </c>
-      <c r="G36" s="34">
-        <v>0</v>
-      </c>
-      <c r="H36" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="B37" s="34">
         <v>0</v>
@@ -2719,9 +2710,9 @@
         <v>22402.999715030193</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="34">
         <v>0</v>
@@ -2745,9 +2736,9 @@
         <v>1935.8960747718811</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="34">
         <v>0</v>
@@ -2771,9 +2762,9 @@
         <v>174773.02461004257</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="34">
         <v>173744.08340668678</v>
@@ -2797,9 +2788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="34">
         <v>787293.94471740723</v>
@@ -2823,61 +2814,61 @@
         <v>51753.531762309372</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="34">
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="34">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="34">
-        <v>0</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="34">
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B43" s="34">
-        <v>0</v>
-      </c>
-      <c r="C43" s="34">
-        <v>0</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="B44" s="34">
         <v>0</v>
@@ -2901,9 +2892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="34">
         <v>0</v>
@@ -2927,9 +2918,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="34">
         <v>0</v>
@@ -2953,9 +2944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="34">
         <v>0</v>
@@ -2979,9 +2970,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="34">
         <v>363442.28945052624</v>
@@ -3005,35 +2996,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="34">
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <v>0</v>
+      </c>
+      <c r="D49" s="34">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B49" s="34">
-        <v>0</v>
-      </c>
-      <c r="C49" s="34">
-        <v>0</v>
-      </c>
-      <c r="D49" s="34">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>0</v>
-      </c>
-      <c r="F49" s="34">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="B50" s="34">
         <v>0</v>
@@ -3057,9 +3048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="34">
         <v>0</v>
@@ -3083,113 +3074,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="34">
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <v>0</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
+        <v>0</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="34">
-        <v>0</v>
-      </c>
-      <c r="C52" s="34">
-        <v>0</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34">
-        <v>0</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <v>0</v>
-      </c>
-      <c r="H52" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="B53" s="34">
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <v>0</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="34">
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <v>0</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>0</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="34">
-        <v>0</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0</v>
-      </c>
-      <c r="E53" s="34">
-        <v>0</v>
-      </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="34">
-        <v>0</v>
-      </c>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="34">
-        <v>0</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0</v>
-      </c>
-      <c r="D54" s="34">
-        <v>0</v>
-      </c>
-      <c r="E54" s="34">
-        <v>0</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
+        <v>0</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0</v>
-      </c>
-      <c r="D55" s="34">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="B56" s="34">
         <v>0</v>
@@ -3213,35 +3204,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="34">
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
+        <v>0</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B57" s="34">
-        <v>0</v>
-      </c>
-      <c r="C57" s="34">
-        <v>0</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
-        <v>0</v>
-      </c>
-      <c r="G57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="B58" s="34">
         <v>0</v>
@@ -3265,88 +3256,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>0</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0</v>
+      </c>
+      <c r="G59" s="34">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="34">
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <v>0</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0</v>
+      </c>
+      <c r="E60" s="34">
+        <v>0</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>0</v>
-      </c>
-      <c r="D59" s="34">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34">
-        <v>0</v>
-      </c>
-      <c r="F59" s="34">
-        <v>0</v>
-      </c>
-      <c r="G59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="34">
-        <v>0</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0</v>
-      </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>0</v>
-      </c>
-      <c r="F60" s="34">
-        <v>0</v>
-      </c>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>0</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="34">
+        <v>0</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>0</v>
-      </c>
-      <c r="D61" s="34">
-        <v>0</v>
-      </c>
-      <c r="E61" s="34">
-        <v>0</v>
-      </c>
-      <c r="F61" s="34">
-        <v>0</v>
-      </c>
-      <c r="G61" s="34">
-        <v>0</v>
-      </c>
-      <c r="H61" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="B62" s="36">
         <v>0</v>
       </c>
@@ -3369,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" s="1" customFormat="1">
       <c r="B65" s="1">
         <f>SUM(B2:B62)/1000</f>
         <v>31387.224639678851</v>
@@ -3402,6 +3393,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3409,44 +3405,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="12" customWidth="1"/>
     <col min="2" max="8" width="19.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>17.373511559329927</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -3498,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>25.502136757497283</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -3550,9 +3546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="34">
         <v>373398.8255443573</v>
@@ -3576,7 +3572,7 @@
         <v>251984.54051589966</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -3654,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -3680,9 +3676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="34">
         <v>2121235.3029203415</v>
@@ -3706,9 +3702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="34">
         <v>16553.780483961105</v>
@@ -3732,7 +3728,7 @@
         <v>13905.176273584366</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -3862,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>70982.890945868596</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>52990.77123650947</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>2437.7317457199097</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
@@ -4018,9 +4014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="B24" s="34">
         <v>5953.5627914177639</v>
@@ -4044,9 +4040,9 @@
         <v>1285.9695615013015</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25" s="34">
         <v>20441.3408203125</v>
@@ -4070,9 +4066,9 @@
         <v>22171.741340637207</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="34">
         <v>0</v>
@@ -4096,9 +4092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="34">
         <v>3470380.624524951</v>
@@ -4122,9 +4118,9 @@
         <v>2481488.5505911168</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="34">
         <v>12167.906260967255</v>
@@ -4148,9 +4144,9 @@
         <v>6814.0273003578186</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="34">
         <v>0</v>
@@ -4174,9 +4170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="34">
         <v>0</v>
@@ -4200,9 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="34">
         <v>0</v>
@@ -4226,9 +4222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="34">
         <v>0</v>
@@ -4252,9 +4248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" s="34">
         <v>0</v>
@@ -4278,9 +4274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" s="34">
         <v>0</v>
@@ -4304,36 +4300,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="34">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="B36" s="34">
         <v>0</v>
       </c>
@@ -4356,9 +4352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" s="34">
         <v>0</v>
@@ -4382,9 +4378,9 @@
         <v>13415.443477615714</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B38" s="34">
         <v>0</v>
@@ -4408,9 +4404,9 @@
         <v>2034.1060981750488</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="34">
         <v>0</v>
@@ -4434,9 +4430,9 @@
         <v>177882.07409954071</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="34">
         <v>240151.17755126953</v>
@@ -4460,9 +4456,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="34">
         <v>905404.97991943359</v>
@@ -4486,61 +4482,61 @@
         <v>62321.848316989839</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="34">
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="34">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="34">
-        <v>0</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="34">
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B43" s="34">
-        <v>0</v>
-      </c>
-      <c r="C43" s="34">
-        <v>0</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="B44" s="34">
         <v>0</v>
@@ -4564,9 +4560,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45" s="34">
         <v>0</v>
@@ -4590,9 +4586,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="34">
         <v>0</v>
@@ -4616,9 +4612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" s="34">
         <v>0</v>
@@ -4642,9 +4638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="34">
         <v>394057.23710632324</v>
@@ -4668,35 +4664,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="34">
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <v>0</v>
+      </c>
+      <c r="D49" s="34">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B49" s="34">
-        <v>0</v>
-      </c>
-      <c r="C49" s="34">
-        <v>0</v>
-      </c>
-      <c r="D49" s="34">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>0</v>
-      </c>
-      <c r="F49" s="34">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="B50" s="34">
         <v>0</v>
@@ -4720,9 +4716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="34">
         <v>0</v>
@@ -4746,113 +4742,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="34">
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <v>0</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
+        <v>0</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="34">
-        <v>0</v>
-      </c>
-      <c r="C52" s="34">
-        <v>0</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34">
-        <v>0</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <v>0</v>
-      </c>
-      <c r="H52" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="B53" s="34">
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <v>0</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="34">
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <v>0</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>0</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="34">
-        <v>0</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0</v>
-      </c>
-      <c r="E53" s="34">
-        <v>0</v>
-      </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="34">
-        <v>0</v>
-      </c>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="34">
-        <v>0</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0</v>
-      </c>
-      <c r="D54" s="34">
-        <v>0</v>
-      </c>
-      <c r="E54" s="34">
-        <v>0</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
+        <v>0</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0</v>
-      </c>
-      <c r="D55" s="34">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="B56" s="34">
         <v>0</v>
@@ -4876,35 +4872,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="34">
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
+        <v>0</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B57" s="34">
-        <v>0</v>
-      </c>
-      <c r="C57" s="34">
-        <v>0</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
-        <v>0</v>
-      </c>
-      <c r="G57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="B58" s="34">
         <v>0</v>
@@ -4928,88 +4924,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>0</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0</v>
+      </c>
+      <c r="G59" s="34">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="34">
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <v>0</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0</v>
+      </c>
+      <c r="E60" s="34">
+        <v>0</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>0</v>
-      </c>
-      <c r="D59" s="34">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34">
-        <v>0</v>
-      </c>
-      <c r="F59" s="34">
-        <v>0</v>
-      </c>
-      <c r="G59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="34">
-        <v>0</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0</v>
-      </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>0</v>
-      </c>
-      <c r="F60" s="34">
-        <v>0</v>
-      </c>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>0</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="34">
+        <v>0</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>0</v>
-      </c>
-      <c r="D61" s="34">
-        <v>0</v>
-      </c>
-      <c r="E61" s="34">
-        <v>0</v>
-      </c>
-      <c r="F61" s="34">
-        <v>0</v>
-      </c>
-      <c r="G61" s="34">
-        <v>0</v>
-      </c>
-      <c r="H61" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="B62" s="36">
         <v>0</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" s="1" customFormat="1">
       <c r="B65" s="1">
         <f>SUM(B2:B62)/1000</f>
         <v>28465.391872477863</v>
@@ -5065,6 +5061,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5072,46 +5073,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="12" customWidth="1"/>
     <col min="2" max="8" width="19.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="34">
         <v>6846336.4817212373</v>
@@ -5135,9 +5136,9 @@
         <v>6.8272470724768937</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -5161,9 +5162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="34">
         <v>2395868.0089766085</v>
@@ -5187,7 +5188,7 @@
         <v>23.344314957794268</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
@@ -5213,9 +5214,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="34">
         <v>427812.46040725708</v>
@@ -5239,7 +5240,7 @@
         <v>274237.90397644043</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
@@ -5343,9 +5344,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="34">
         <v>2048741.3926782929</v>
@@ -5369,9 +5370,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="34">
         <v>19780.120436668396</v>
@@ -5395,7 +5396,7 @@
         <v>16615.301568031311</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>79291.143737397157</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>15</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>16</v>
       </c>
@@ -5603,9 +5604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="34">
         <v>179697.99554789349</v>
@@ -5629,9 +5630,9 @@
         <v>44585.984474747253</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="34">
         <v>7099.9678790569305</v>
@@ -5655,7 +5656,7 @@
         <v>2300.3896576166153</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>19</v>
       </c>
@@ -5681,9 +5682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B24" s="34">
         <v>7710.4487404315223</v>
@@ -5707,9 +5708,9 @@
         <v>1665.4569050705959</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B25" s="34">
         <v>20229.487614870071</v>
@@ -5733,9 +5734,9 @@
         <v>22041.620704889297</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B26" s="34">
         <v>0</v>
@@ -5759,9 +5760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" s="34">
         <v>3840440.1069260836</v>
@@ -5785,9 +5786,9 @@
         <v>2465075.5727499053</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="34">
         <v>13734.683171272278</v>
@@ -5811,9 +5812,9 @@
         <v>7691.4222388267517</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="34">
         <v>0</v>
@@ -5837,9 +5838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="34">
         <v>0</v>
@@ -5863,9 +5864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" s="34">
         <v>0</v>
@@ -5889,9 +5890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B32" s="34">
         <v>0</v>
@@ -5915,9 +5916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B33" s="34">
         <v>0</v>
@@ -5941,9 +5942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B34" s="34">
         <v>0</v>
@@ -5967,36 +5968,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <v>0</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="34">
-        <v>0</v>
-      </c>
-      <c r="C35" s="34">
-        <v>0</v>
-      </c>
-      <c r="D35" s="34">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="B36" s="34">
         <v>0</v>
       </c>
@@ -6019,9 +6020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" s="34">
         <v>0</v>
@@ -6045,9 +6046,9 @@
         <v>12987.964296636721</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" s="34">
         <v>0</v>
@@ -6071,9 +6072,9 @@
         <v>2214.1579561233521</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" s="34">
         <v>0</v>
@@ -6097,9 +6098,9 @@
         <v>180991.11910295486</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="34">
         <v>259645.02716064453</v>
@@ -6123,9 +6124,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="34">
         <v>702994.21270751953</v>
@@ -6149,61 +6150,61 @@
         <v>68139.499520309269</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="34">
+        <v>0</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="34">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="34">
-        <v>0</v>
-      </c>
-      <c r="C42" s="34">
-        <v>0</v>
-      </c>
-      <c r="D42" s="34">
-        <v>0</v>
-      </c>
-      <c r="E42" s="34">
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="B43" s="34">
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
+        <v>0</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="B43" s="34">
-        <v>0</v>
-      </c>
-      <c r="C43" s="34">
-        <v>0</v>
-      </c>
-      <c r="D43" s="34">
-        <v>0</v>
-      </c>
-      <c r="E43" s="34">
-        <v>0</v>
-      </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="B44" s="34">
         <v>0</v>
@@ -6227,9 +6228,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="34">
         <v>0</v>
@@ -6253,9 +6254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B46" s="34">
         <v>0</v>
@@ -6279,9 +6280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="34">
         <v>0</v>
@@ -6305,9 +6306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="34">
         <v>300908.17101287842</v>
@@ -6331,35 +6332,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="34">
+        <v>0</v>
+      </c>
+      <c r="C49" s="34">
+        <v>0</v>
+      </c>
+      <c r="D49" s="34">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="B49" s="34">
-        <v>0</v>
-      </c>
-      <c r="C49" s="34">
-        <v>0</v>
-      </c>
-      <c r="D49" s="34">
-        <v>0</v>
-      </c>
-      <c r="E49" s="34">
-        <v>0</v>
-      </c>
-      <c r="F49" s="34">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="B50" s="34">
         <v>0</v>
@@ -6383,9 +6384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="34">
         <v>0</v>
@@ -6409,113 +6410,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="34">
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <v>0</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
+        <v>0</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="34">
-        <v>0</v>
-      </c>
-      <c r="C52" s="34">
-        <v>0</v>
-      </c>
-      <c r="D52" s="34">
-        <v>0</v>
-      </c>
-      <c r="E52" s="34">
-        <v>0</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <v>0</v>
-      </c>
-      <c r="H52" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
+      <c r="B53" s="34">
+        <v>0</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <v>0</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="34">
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
+        <v>0</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>0</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="34">
-        <v>0</v>
-      </c>
-      <c r="C53" s="34">
-        <v>0</v>
-      </c>
-      <c r="D53" s="34">
-        <v>0</v>
-      </c>
-      <c r="E53" s="34">
-        <v>0</v>
-      </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="34">
-        <v>0</v>
-      </c>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="34">
-        <v>0</v>
-      </c>
-      <c r="C54" s="34">
-        <v>0</v>
-      </c>
-      <c r="D54" s="34">
-        <v>0</v>
-      </c>
-      <c r="E54" s="34">
-        <v>0</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
+      <c r="B55" s="34">
+        <v>0</v>
+      </c>
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
+        <v>0</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="B55" s="34">
-        <v>0</v>
-      </c>
-      <c r="C55" s="34">
-        <v>0</v>
-      </c>
-      <c r="D55" s="34">
-        <v>0</v>
-      </c>
-      <c r="E55" s="34">
-        <v>0</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="B56" s="34">
         <v>0</v>
@@ -6539,35 +6540,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="34">
+        <v>0</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
+        <v>0</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B57" s="34">
-        <v>0</v>
-      </c>
-      <c r="C57" s="34">
-        <v>0</v>
-      </c>
-      <c r="D57" s="34">
-        <v>0</v>
-      </c>
-      <c r="E57" s="34">
-        <v>0</v>
-      </c>
-      <c r="F57" s="34">
-        <v>0</v>
-      </c>
-      <c r="G57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="B58" s="34">
         <v>0</v>
@@ -6591,88 +6592,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="34">
+        <v>0</v>
+      </c>
+      <c r="C59" s="34">
+        <v>0</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0</v>
+      </c>
+      <c r="G59" s="34">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="34">
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <v>0</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0</v>
+      </c>
+      <c r="E60" s="34">
+        <v>0</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="34">
-        <v>0</v>
-      </c>
-      <c r="C59" s="34">
-        <v>0</v>
-      </c>
-      <c r="D59" s="34">
-        <v>0</v>
-      </c>
-      <c r="E59" s="34">
-        <v>0</v>
-      </c>
-      <c r="F59" s="34">
-        <v>0</v>
-      </c>
-      <c r="G59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="34">
-        <v>0</v>
-      </c>
-      <c r="C60" s="34">
-        <v>0</v>
-      </c>
-      <c r="D60" s="34">
-        <v>0</v>
-      </c>
-      <c r="E60" s="34">
-        <v>0</v>
-      </c>
-      <c r="F60" s="34">
-        <v>0</v>
-      </c>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="21" t="s">
+      <c r="B61" s="34">
+        <v>0</v>
+      </c>
+      <c r="C61" s="34">
+        <v>0</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="34">
+        <v>0</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0</v>
+      </c>
+      <c r="G61" s="34">
+        <v>0</v>
+      </c>
+      <c r="H61" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="34">
-        <v>0</v>
-      </c>
-      <c r="C61" s="34">
-        <v>0</v>
-      </c>
-      <c r="D61" s="34">
-        <v>0</v>
-      </c>
-      <c r="E61" s="34">
-        <v>0</v>
-      </c>
-      <c r="F61" s="34">
-        <v>0</v>
-      </c>
-      <c r="G61" s="34">
-        <v>0</v>
-      </c>
-      <c r="H61" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="B62" s="36">
         <v>0</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8">
       <c r="B65" s="1">
         <f>SUM(B2:B62)/1000</f>
         <v>29684.278011714508</v>
@@ -6728,5 +6729,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>